--- a/forms/incidents/incidents.xlsx
+++ b/forms/incidents/incidents.xlsx
@@ -9,11 +9,11 @@
     <sheet state="visible" name="warnings" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_239664B0_4708_4B14_B60E_C33E8E582AFB_.wvu.FilterData">survey!$A$1:$A$31</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_39AC9590_41CC_43A9_BC18_FDF0040EFB1D_.wvu.FilterData">survey!$A$1:$A$31</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{239664B0-4708-4B14-B60E-C33E8E582AFB}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{39AC9590-41CC-43A9-BC18-FDF0040EFB1D}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -358,7 +358,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -390,10 +390,6 @@
       <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;docs-Ubuntu Mono&quot;"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <name val="Ubuntu Mono"/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -500,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -546,19 +542,13 @@
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -567,35 +557,35 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1681,7 +1671,7 @@
       <c r="A15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="9"/>
@@ -1837,47 +1827,47 @@
       <c r="B18" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
-      <c r="AN18" s="16"/>
-      <c r="AO18" s="16"/>
-      <c r="AP18" s="16"/>
-      <c r="AQ18" s="16"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
@@ -1943,15 +1933,15 @@
       <c r="B20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>76</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="13" t="s">
         <v>76</v>
       </c>
       <c r="H20" s="9"/>
@@ -2000,15 +1990,15 @@
       <c r="B21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>79</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H21" s="9"/>
@@ -2049,51 +2039,51 @@
       <c r="AQ21" s="9"/>
     </row>
     <row r="22">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="18"/>
-      <c r="AM22" s="18"/>
-      <c r="AN22" s="18"/>
-      <c r="AO22" s="18"/>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="18"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="16"/>
+      <c r="AO22" s="16"/>
+      <c r="AP22" s="16"/>
+      <c r="AQ22" s="16"/>
     </row>
     <row r="23">
       <c r="A23" s="9"/>
@@ -2102,7 +2092,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2146,7 +2136,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="G24" s="20"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2191,7 +2181,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2235,7 +2225,7 @@
       <c r="C26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="20"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2280,7 +2270,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="20"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2325,7 +2315,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2370,7 +2360,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="20"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2409,98 +2399,98 @@
       <c r="AQ29" s="9"/>
     </row>
     <row r="30">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
-      <c r="AE30" s="21"/>
-      <c r="AF30" s="21"/>
-      <c r="AG30" s="21"/>
-      <c r="AH30" s="21"/>
-      <c r="AI30" s="21"/>
-      <c r="AJ30" s="21"/>
-      <c r="AK30" s="21"/>
-      <c r="AL30" s="21"/>
-      <c r="AM30" s="21"/>
-      <c r="AN30" s="21"/>
-      <c r="AO30" s="21"/>
-      <c r="AP30" s="21"/>
-      <c r="AQ30" s="21"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
+      <c r="AL30" s="19"/>
+      <c r="AM30" s="19"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="19"/>
+      <c r="AQ30" s="19"/>
     </row>
     <row r="31">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
-      <c r="AE31" s="21"/>
-      <c r="AF31" s="21"/>
-      <c r="AG31" s="21"/>
-      <c r="AH31" s="21"/>
-      <c r="AI31" s="21"/>
-      <c r="AJ31" s="21"/>
-      <c r="AK31" s="21"/>
-      <c r="AL31" s="21"/>
-      <c r="AM31" s="21"/>
-      <c r="AN31" s="21"/>
-      <c r="AO31" s="21"/>
-      <c r="AP31" s="21"/>
-      <c r="AQ31" s="21"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
+      <c r="AQ31" s="19"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{239664B0-4708-4B14-B60E-C33E8E582AFB}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{39AC9590-41CC-43A9-BC18-FDF0040EFB1D}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$A$31"/>
     </customSheetView>
   </customSheetViews>
@@ -2561,155 +2551,155 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="25" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="24" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2731,47 +2721,47 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="31">
-        <v>2.021022604E9</v>
+      <c r="F2" s="29">
+        <v>2.021072201E9</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="32"/>
+      <c r="B8" s="30"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -3766,7 +3756,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>110</v>
       </c>
     </row>

--- a/forms/incidents/incidents.xlsx
+++ b/forms/incidents/incidents.xlsx
@@ -9,17 +9,17 @@
     <sheet state="visible" name="warnings" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_39AC9590_41CC_43A9_BC18_FDF0040EFB1D_.wvu.FilterData">survey!$A$1:$A$31</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D0B67B7C_E5D3_47A0_8EF2_F03559C27D99_.wvu.FilterData">survey!$A$1:$A$31</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{39AC9590-41CC-43A9-BC18-FDF0040EFB1D}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D0B67B7C-E5D3-47A0-8EF2-F03559C27D99}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
   <si>
     <t>type</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>Crime</t>
+  </si>
+  <si>
+    <t>political_issue</t>
+  </si>
+  <si>
+    <t>Poltical issue</t>
   </si>
   <si>
     <t>other</t>
@@ -2490,7 +2496,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{39AC9590-41CC-43A9-BC18-FDF0040EFB1D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D0B67B7C-E5D3-47A0-8EF2-F03559C27D99}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$A$31"/>
     </customSheetView>
   </customSheetViews>
@@ -2671,40 +2677,57 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="C8" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="D8" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>96</v>
+      <c r="E8" s="24" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="E9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="20" t="s">
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>99</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:E4 B2:B4 B6:B7 C6:E9">
+  <conditionalFormatting sqref="C1:E4 B2:B4 B6:B8 C6:E10">
     <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
@@ -2722,42 +2745,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F2" s="29">
-        <v>2.021072201E9</v>
+        <v>2.021080402E9</v>
       </c>
     </row>
     <row r="8">
@@ -3757,7 +3780,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
